--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value209.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value209.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.580327890051213</v>
+        <v>1.536975383758545</v>
       </c>
       <c r="B1">
-        <v>2.082040229731273</v>
+        <v>3.669739007949829</v>
       </c>
       <c r="C1">
-        <v>2.065616781156689</v>
+        <v>5.76205587387085</v>
       </c>
       <c r="D1">
-        <v>1.939964206420879</v>
+        <v>1.412290096282959</v>
       </c>
       <c r="E1">
-        <v>0.5648102544832238</v>
+        <v>0.8247694969177246</v>
       </c>
     </row>
   </sheetData>
